--- a/JW/item.xlsx
+++ b/JW/item.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2475" yWindow="1575" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3120" yWindow="1755" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="items" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sp2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="b_hall" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="sp3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -423,10 +424,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -435,41 +436,6 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>지도</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>손전등</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>창고열쇠</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>보안키</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>연구일지</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>오징어 맛살</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>똥</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>500원</t>
         </is>
       </c>
     </row>
@@ -492,10 +458,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -521,6 +487,11 @@
           <t>설명(안적어도됨)</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>배고픔 회복량</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -680,6 +651,49 @@
         <is>
           <t>매우 우람해</t>
         </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>보안실, 창고, 관리실 등에서 사용 가능</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>배고픔 20 회복</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -694,10 +708,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="H4:K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -705,19 +719,133 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>마음</t>
+          <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>상자3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>상자4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>상자5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>밥</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>갑오징어</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>빛</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>갑오징어</t>
+          <t>마음</t>
         </is>
       </c>
     </row>
